--- a/Module 28 - Consolidated Financial Statements Fair Values and Goodwill.xlsx
+++ b/Module 28 - Consolidated Financial Statements Fair Values and Goodwill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="851" documentId="8_{A15A6917-A4B0-4037-BE4A-5411CBB6B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C1C950-1D13-49EA-84E8-18F6EC5F18CD}"/>
+  <xr:revisionPtr revIDLastSave="1243" documentId="8_{A15A6917-A4B0-4037-BE4A-5411CBB6B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E138C521-6C1D-46A9-AB61-3A4945140D83}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="-17460" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{980FB30F-44F3-473B-98D0-6A621BC8C19B}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{980FB30F-44F3-473B-98D0-6A621BC8C19B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="300">
   <si>
     <t>Main</t>
   </si>
@@ -786,6 +786,165 @@
   </si>
   <si>
     <t>under FRS102 - bargain purchase goes in as negative goodwill</t>
+  </si>
+  <si>
+    <t>Dunn</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>Total consideration paid for</t>
+  </si>
+  <si>
+    <t>bonds</t>
+  </si>
+  <si>
+    <t>isssue cost for shares</t>
+  </si>
+  <si>
+    <t>isssue cost for bonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legal fees and merchant bank fees </t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;this get debited to admin expense.  Legal costs, banking fees and director expense cannot be priced into the consideration</t>
+  </si>
+  <si>
+    <t>Directors</t>
+  </si>
+  <si>
+    <t>contingent payment</t>
+  </si>
+  <si>
+    <t>discount this to present value and recognise a finance income</t>
+  </si>
+  <si>
+    <t>Present value of consideration paid</t>
+  </si>
+  <si>
+    <t>Cash consideration</t>
+  </si>
+  <si>
+    <t>Contingent payment FV</t>
+  </si>
+  <si>
+    <t>Ordinary share (FV at acq date)</t>
+  </si>
+  <si>
+    <t>Bonds (fair value)</t>
+  </si>
+  <si>
+    <t>Fair value of net assets</t>
+  </si>
+  <si>
+    <t>increase/(decrease)</t>
+  </si>
+  <si>
+    <t>Financial assets</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Financial liabilities</t>
+  </si>
+  <si>
+    <t>Other liabilities</t>
+  </si>
+  <si>
+    <t>NBV of net assets after adjustments</t>
+  </si>
+  <si>
+    <t>NBV of net assets prior to adjustments</t>
+  </si>
+  <si>
+    <t>GW and NCI</t>
+  </si>
+  <si>
+    <t>Investment in subsidiary</t>
+  </si>
+  <si>
+    <t>dr - share capital</t>
+  </si>
+  <si>
+    <t>cr -investment in sub</t>
+  </si>
+  <si>
+    <t>cr - SFP NCI</t>
+  </si>
+  <si>
+    <t>dr - Inventories</t>
+  </si>
+  <si>
+    <t>cr - liablity for gurantee</t>
+  </si>
+  <si>
+    <t>dr - develpoment cost</t>
+  </si>
+  <si>
+    <t>dr - investments</t>
+  </si>
+  <si>
+    <t>being fair value adjustments, elimination of investment and recognition of goodwill and NCI</t>
+  </si>
+  <si>
+    <t>Compo Group</t>
+  </si>
+  <si>
+    <t>Compo</t>
+  </si>
+  <si>
+    <t>Woodlee</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>acquired on 1/1/24</t>
+  </si>
+  <si>
+    <t>total equity</t>
+  </si>
+  <si>
+    <t>RVS</t>
+  </si>
+  <si>
+    <t>dr - RVS</t>
+  </si>
+  <si>
+    <t>bargain purchase</t>
+  </si>
+  <si>
+    <t>dr -gw</t>
+  </si>
+  <si>
+    <t>cr - gain on bargain purchase</t>
+  </si>
+  <si>
+    <t>cr - RE</t>
+  </si>
+  <si>
+    <t>cr  -PPE</t>
+  </si>
+  <si>
+    <t>Pickle Group</t>
+  </si>
+  <si>
+    <t>WSE28.2</t>
+  </si>
+  <si>
+    <t>WSE28.3</t>
+  </si>
+  <si>
+    <t>WSE28.4</t>
   </si>
 </sst>
 </file>
@@ -862,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -879,6 +1038,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1546,14 +1707,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>583472</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>56503</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373685</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>93555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1576,8 +1737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="606136" y="10633364"/>
-          <a:ext cx="18767563" cy="8629003"/>
+          <a:off x="610466" y="5966114"/>
+          <a:ext cx="4646946" cy="2063498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1886,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800815E2-C717-4805-A523-8F9EF61FD11D}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,10 +2066,28 @@
         <v>88</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="' Module 28'!A1" display="Module 28" xr:uid="{D200F653-C8EA-4A8A-8D2A-509082F75451}"/>
     <hyperlink ref="C2" location="WSE28.1!A1" display="WSE28.1" xr:uid="{CEEF332C-DD7F-47A0-B325-5C7DBCBC78C2}"/>
+    <hyperlink ref="C3" location="WSE28.2!A1" display="WSE28.2" xr:uid="{737292EC-5D7F-49CD-810F-32C4318A0E95}"/>
+    <hyperlink ref="C4" location="WSE28.3!A1" display="WSE28.3" xr:uid="{C5FDA06B-36F9-49E6-87C3-60879C466665}"/>
+    <hyperlink ref="C5" location="WSE28.4!A1" display="WSE28.4" xr:uid="{94496E4A-C6CD-4BBB-8406-76FBC426650D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1919,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93555C46-725C-4B5C-BF74-95CEB3916F5A}">
   <dimension ref="A1:H525"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G556" sqref="G556"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3247,7 +3426,7 @@
         <v>100</v>
       </c>
       <c r="G440" s="1" t="str">
-        <f t="shared" ref="G440:H448" ca="1" si="0">_xlfn.FORMULATEXT(E440)</f>
+        <f t="shared" ref="G440:G445" ca="1" si="0">_xlfn.FORMULATEXT(E440)</f>
         <v>=+C358</v>
       </c>
     </row>
@@ -3649,9 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88319C3D-2763-4ACB-9186-34E7CB73F99C}">
   <dimension ref="A1:XFC125"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20939,12 +21116,1208 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806FAD70-591F-4BC3-9FA0-174A721A52F6}">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="1">
+        <f>0.85*D5</f>
+        <v>17000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5200</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <f>0.5*4000</f>
+        <v>2000</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D10)</f>
+        <v>=0.5*4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(5.2-0.5)*4000</f>
+        <v>18800</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D11)</f>
+        <v>=(5.2-0.5)*4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="1">
+        <v>480</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="1">
+        <f>5%*7000</f>
+        <v>350</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2225</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="6">
+        <f>D9</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="6">
+        <f>D17</f>
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(D10:D11)</f>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D12</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="9">
+        <f>SUM(D20:D23)</f>
+        <v>30625</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="6">
+        <v>7500</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5200</v>
+      </c>
+      <c r="E29" s="6">
+        <f>C29-D29</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2400</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" ref="E30" si="0">C30-D30</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="6">
+        <v>800</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <f>C31-D31</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="6">
+        <f>3100*0.95</f>
+        <v>2945</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32" si="1">C32-D32</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-6500</v>
+      </c>
+      <c r="D33" s="6">
+        <v>-7200</v>
+      </c>
+      <c r="E33" s="6">
+        <f>C33-D33</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-500</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <f>C34-D34</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="9">
+        <f>SUM(E29:E34)</f>
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14">
+        <f>20000+8400</f>
+        <v>28400</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E36)</f>
+        <v>=20000+8400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14">
+        <f>E35+E36</f>
+        <v>33045</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E37)</f>
+        <v>=E35+E36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <f>D24</f>
+        <v>30625</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="5">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="E41" s="6">
+        <f>-D41*E42</f>
+        <v>4956.75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <f>-E37</f>
+        <v>-33045</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <f>SUM(E40:E42)</f>
+        <v>2536.75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
+        <f>SUM(E46:E58)</f>
+        <v>36081.75</v>
+      </c>
+      <c r="F45" s="6">
+        <f>SUM(F46:F58)</f>
+        <v>36081.75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="15">
+        <f>'WSE28.2'!D5</f>
+        <v>20000</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="15">
+        <f>D6</f>
+        <v>8400</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="15">
+        <f>E43</f>
+        <v>2536.75</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="15">
+        <f>E29</f>
+        <v>2300</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="15">
+        <f>E32</f>
+        <v>745</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="15">
+        <f>E31</f>
+        <v>800</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="15">
+        <f>E30</f>
+        <v>600</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="15">
+        <f>E33</f>
+        <v>700</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15">
+        <f>-E34</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
+        <f>E40</f>
+        <v>30625</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
+        <f>E41</f>
+        <v>4956.75</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D62" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F3270CAB-7F34-4159-BC2F-721DE9444CA1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADA50D-139E-4A28-AEBE-332F711327D4}">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-2700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="9">
+        <f>SUM(D7:D10)</f>
+        <v>15000</v>
+      </c>
+      <c r="E11" s="9">
+        <f>SUM(E7:E10)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="9">
+        <v>16000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5600</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="6">
+        <f>C18-D18</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="9">
+        <f>SUM(E18:E18)</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <f>D11</f>
+        <v>15000</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E20)</f>
+        <v>=D11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
+        <f>E19+E20</f>
+        <v>17600</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E21)</f>
+        <v>=E19+E20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <f>D14</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="5">
+        <f>1-D5</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="E25" s="6">
+        <f>-D25*E26</f>
+        <v>3519.9999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <f>-E21</f>
+        <v>-17600</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <f>SUM(E24:E26)</f>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="15">
+        <f>D7</f>
+        <v>2000</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="15">
+        <f>D8</f>
+        <v>1000</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="15">
+        <f>D9</f>
+        <v>4500</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="15">
+        <f>D10</f>
+        <v>7500</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="15">
+        <f>E18</f>
+        <v>2600</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="15">
+        <f>E27</f>
+        <v>1920</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
+        <f>E24</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
+        <f>E25</f>
+        <v>3519.9999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" s="9">
+        <f>E14</f>
+        <v>4200</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="9">
+        <f>SUM(E46:E46)</f>
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14">
+        <f>E11</f>
+        <v>8500</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E48)</f>
+        <v>=E11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14">
+        <f>E47+E48</f>
+        <v>7900</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E49)</f>
+        <v>=E47+E48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <f>D42</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E53" s="6">
+        <f>-D53*E54</f>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
+        <f>-E49</f>
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6">
+        <f>SUM(E52:E54)</f>
+        <v>-1330</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
+        <f>SUM(E62:E71)</f>
+        <v>11200</v>
+      </c>
+      <c r="F61" s="6">
+        <f>SUM(F62:F71)</f>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="15">
+        <f>E7</f>
+        <v>5500</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="15">
+        <f>E8</f>
+        <v>2000</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="15">
+        <f>E9</f>
+        <v>3700</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="F65" s="15">
+        <f>-E46</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="F66" s="15">
+        <f>-E10</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15">
+        <f>-E55</f>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6">
+        <f>E52</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6">
+        <f>E53</f>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{49CDCA35-C6B9-4EBF-8831-C46286CE31EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C8E658-BB4F-4B0D-AD3F-89EC2F85E9F7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -20960,61 +22333,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F3270CAB-7F34-4159-BC2F-721DE9444CA1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADA50D-139E-4A28-AEBE-332F711327D4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{49CDCA35-C6B9-4EBF-8831-C46286CE31EF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C8E658-BB4F-4B0D-AD3F-89EC2F85E9F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Module 28 - Consolidated Financial Statements Fair Values and Goodwill.xlsx
+++ b/Module 28 - Consolidated Financial Statements Fair Values and Goodwill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1243" documentId="8_{A15A6917-A4B0-4037-BE4A-5411CBB6B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E138C521-6C1D-46A9-AB61-3A4945140D83}"/>
+  <xr:revisionPtr revIDLastSave="1607" documentId="8_{A15A6917-A4B0-4037-BE4A-5411CBB6B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B88C00-3F47-48F9-9DEB-770C4BB2DFB4}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{980FB30F-44F3-473B-98D0-6A621BC8C19B}"/>
+    <workbookView xWindow="6750" yWindow="6600" windowWidth="21600" windowHeight="11385" xr2:uid="{980FB30F-44F3-473B-98D0-6A621BC8C19B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="378">
   <si>
     <t>Main</t>
   </si>
@@ -945,13 +945,252 @@
   </si>
   <si>
     <t>WSE28.4</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>opening net assets</t>
+  </si>
+  <si>
+    <t>land reval</t>
+  </si>
+  <si>
+    <t>reval reserve</t>
+  </si>
+  <si>
+    <t>cr - AD</t>
+  </si>
+  <si>
+    <t>increase cost of property reval</t>
+  </si>
+  <si>
+    <t>norma</t>
+  </si>
+  <si>
+    <t>increase to depr</t>
+  </si>
+  <si>
+    <t>dr -COS</t>
+  </si>
+  <si>
+    <t>unrealised profits</t>
+  </si>
+  <si>
+    <t>being elimination of intercompany unrealised profits</t>
+  </si>
+  <si>
+    <t>dr - rev</t>
+  </si>
+  <si>
+    <t>cr - SPL COS</t>
+  </si>
+  <si>
+    <t>dr - COS</t>
+  </si>
+  <si>
+    <t>cr - inventoroes</t>
+  </si>
+  <si>
+    <t>Decrease effective interest on bonds</t>
+  </si>
+  <si>
+    <t>cr - SPL finance cost</t>
+  </si>
+  <si>
+    <t>cr  - inventories</t>
+  </si>
+  <si>
+    <t>being increased cost of sales as a result of fair value increase in opening inventories</t>
+  </si>
+  <si>
+    <t>Step 1:  Add financial statements together</t>
+  </si>
+  <si>
+    <t>Step 2: recognise gw and NCI at date of acq.</t>
+  </si>
+  <si>
+    <t>Step 3: recognise and impairment of gw</t>
+  </si>
+  <si>
+    <t>Step 4: allocate share of subsidiaiy's historical profit/loss and other gains/losses to non-controlling interests</t>
+  </si>
+  <si>
+    <t>Step 5: Allocate share of subsidiaries CY profit/loss to NCI</t>
+  </si>
+  <si>
+    <t>Step 6: Eliminate IC transactions and balances and allocate share of adjustments to subsidiary's PL to NCI</t>
+  </si>
+  <si>
+    <t>Final Step:  Transfer adjustements in the consolidated statement of profit or loss to the consol SFP</t>
+  </si>
+  <si>
+    <t>Increased depreciation charge</t>
+  </si>
+  <si>
+    <t>Decerease effective interest on bonds</t>
+  </si>
+  <si>
+    <t>Increase cost of sales</t>
+  </si>
+  <si>
+    <t>Reduction in profit</t>
+  </si>
+  <si>
+    <t>NCI share</t>
+  </si>
+  <si>
+    <t>being NCI share of reduction in profit as a result of fair value adjustemetnts</t>
+  </si>
+  <si>
+    <t>dr -SFP NCI</t>
+  </si>
+  <si>
+    <t>NCI share of profits</t>
+  </si>
+  <si>
+    <t>dr to RE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr - SPL </t>
+  </si>
+  <si>
+    <t>being transfer to RE</t>
+  </si>
+  <si>
+    <t>Being NCI share of current year profit</t>
+  </si>
+  <si>
+    <t>Cr SFP NCI</t>
+  </si>
+  <si>
+    <t>Dr P&amp;L NCI</t>
+  </si>
+  <si>
+    <t>Share of current year profit</t>
+  </si>
+  <si>
+    <t>Step 5 – Allocate share of subsidiary’s current year profit/ loss and other gains/ losses to non-controlling interests</t>
+  </si>
+  <si>
+    <t>N/a - sub acquired in the year.</t>
+  </si>
+  <si>
+    <t>Step 4 – Allocate share of subsidiary’s historical profit/ loss and other gains/ losses to noncontrolling interests</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Step 3 – Recognise any impairment of goodwill</t>
+  </si>
+  <si>
+    <t>being fair value adjustments, elimination of investment and recognition of goodwill and
+non-controlling interests</t>
+  </si>
+  <si>
+    <t>Cr Investment in sub</t>
+  </si>
+  <si>
+    <t>Cr Bonds</t>
+  </si>
+  <si>
+    <t>Cr Retained earnings</t>
+  </si>
+  <si>
+    <t>Dr goodwill</t>
+  </si>
+  <si>
+    <t>Dr Share premium</t>
+  </si>
+  <si>
+    <t>Dr Share capital</t>
+  </si>
+  <si>
+    <t>Dr Inventories</t>
+  </si>
+  <si>
+    <t>Dr Land</t>
+  </si>
+  <si>
+    <t>Dr PPE</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Investment in sub</t>
+  </si>
+  <si>
+    <t>Goodwill and non-controlling interests</t>
+  </si>
+  <si>
+    <t>150-120</t>
+  </si>
+  <si>
+    <t>FV increase in inventories</t>
+  </si>
+  <si>
+    <t>1600-1500</t>
+  </si>
+  <si>
+    <t>FV Increase in bonds</t>
+  </si>
+  <si>
+    <t>4,000-3,000</t>
+  </si>
+  <si>
+    <t>FV increase in property</t>
+  </si>
+  <si>
+    <t>1000-900</t>
+  </si>
+  <si>
+    <t>FV increase in land</t>
+  </si>
+  <si>
+    <t>600+1400+1600</t>
+  </si>
+  <si>
+    <t>Carrying amount</t>
+  </si>
+  <si>
+    <t>Retained earnings at 1 Jan 20x9</t>
+  </si>
+  <si>
+    <t>Profit for the year</t>
+  </si>
+  <si>
+    <t>Retained earnings at 31 Dec 20x9</t>
+  </si>
+  <si>
+    <t>Step 2 - Recognise goodwill and NCI at date of acquisition</t>
+  </si>
+  <si>
+    <t>See end</t>
+  </si>
+  <si>
+    <t>Step 1 - Add financial statements together</t>
+  </si>
+  <si>
+    <t>Increase depr charge</t>
+  </si>
+  <si>
+    <t>Increased cost of sales</t>
+  </si>
+  <si>
+    <t>Being increased cost of sales as a result of fair value increase in opening inventories</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +1221,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -997,7 +1259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1016,12 +1278,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1040,8 +1312,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2049,9 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800815E2-C717-4805-A523-8F9EF61FD11D}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2098,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93555C46-725C-4B5C-BF74-95CEB3916F5A}">
   <dimension ref="A1:H525"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A521" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -21118,7 +21396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806FAD70-591F-4BC3-9FA0-174A721A52F6}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView topLeftCell="A61" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21693,7 +21973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADA50D-139E-4A28-AEBE-332F711327D4}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22312,13 +22594,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C8E658-BB4F-4B0D-AD3F-89EC2F85E9F7}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A84" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -22326,14 +22605,1195 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2200</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="19">
+        <v>-600</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="18">
+        <f>SUM(C15:C16)</f>
+        <v>1600</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" s="18">
+        <f>600+1400+1600</f>
+        <v>3600</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="18">
+        <f>1000-900</f>
+        <v>100</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="18">
+        <v>-100</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="19">
+        <v>30</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="18">
+        <f>SUM(C20:C24)</f>
+        <v>4630</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="18">
+        <v>5450</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="19">
+        <f>10%*C25</f>
+        <v>463</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="18">
+        <f>SUM(C29:C30)</f>
+        <v>5913</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="19">
+        <f>C25</f>
+        <v>4630</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="18">
+        <f>C31-C32</f>
+        <v>1283</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="18">
+        <f>C22</f>
+        <v>1000</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36" s="18">
+        <v>100</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="18">
+        <f>C24</f>
+        <v>30</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C38" s="18">
+        <v>600</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1400</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C40" s="18">
+        <f>C33</f>
+        <v>1283</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="18">
+        <f>C17</f>
+        <v>1600</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18">
+        <v>100</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18">
+        <f>C29</f>
+        <v>5450</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18">
+        <f>C30</f>
+        <v>463</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" s="18">
+        <f>600*10%</f>
+        <v>60</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C56" s="18">
+        <v>60</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18">
+        <v>60</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="1" t="e">
+        <f>+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="1">
+        <f>+D67-D68</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="1">
+        <f>+D77</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F72" s="1">
+        <f>+E71</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="1">
+        <f>0.02*D67</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" s="1">
+        <f>+D68*0.02</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="1">
+        <f>+D75-D76</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E81" s="1">
+        <f>+C81*D81</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D82" s="16">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E82" s="1">
+        <f>+C82*D82</f>
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E83" s="6">
+        <f>+E82-E81</f>
+        <v>-17.599999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="6">
+        <f>-E83</f>
+        <v>17.599999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F86" s="6">
+        <f>+E85</f>
+        <v>17.599999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="1">
+        <v>120</v>
+      </c>
+      <c r="D90" s="1">
+        <v>96</v>
+      </c>
+      <c r="E90" s="1">
+        <f>+C90-D90</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="1">
+        <v>150</v>
+      </c>
+      <c r="D91" s="1">
+        <v>120</v>
+      </c>
+      <c r="E91" s="1">
+        <f>+C91-D91</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E96" s="1">
+        <f>+E90</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C97" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F97" s="1">
+        <f>+E96</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C103" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F103" s="1">
+        <f>+E102</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104" s="1">
+        <f>+F105</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C105" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F105" s="1">
+        <f>220*0.25</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F109" s="6">
+        <f>-+E71</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F110" s="6">
+        <f>+F86</f>
+        <v>17.599999999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F111" s="6">
+        <f>-+E96</f>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F112" s="6">
+        <f>SUM(F109:F111)</f>
+        <v>-26.400000000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F113" s="6">
+        <f>0.1*F112</f>
+        <v>-2.6400000000000006</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E115" s="6">
+        <f>-F113</f>
+        <v>2.6400000000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F116" s="6">
+        <f>+E115</f>
+        <v>2.6400000000000006</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F120" s="22">
+        <f>+C56</f>
+        <v>60</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F121" s="1">
+        <f>+E102</f>
+        <v>1100</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F122" s="1">
+        <f>+F103</f>
+        <v>1100</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F123" s="1">
+        <f>+E104</f>
+        <v>55</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F124" s="1">
+        <f>+E71</f>
+        <v>20</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F125" s="1">
+        <f>+E96</f>
+        <v>24</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F126" s="6">
+        <f>+F86</f>
+        <v>17.599999999999994</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F127" s="6">
+        <f>+F116</f>
+        <v>2.6400000000000006</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F128" s="6">
+        <f>+F120+F121-F122+F123+F124+F125-F126-F127</f>
+        <v>138.76</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E129" s="6">
+        <f>+F128</f>
+        <v>138.76</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C130" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F130" s="6">
+        <f>+E129</f>
+        <v>138.76</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -22341,5 +23801,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{61730EEC-F14F-44E6-B38D-7B612F2BFC66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Module 28 - Consolidated Financial Statements Fair Values and Goodwill.xlsx
+++ b/Module 28 - Consolidated Financial Statements Fair Values and Goodwill.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1607" documentId="8_{A15A6917-A4B0-4037-BE4A-5411CBB6B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B88C00-3F47-48F9-9DEB-770C4BB2DFB4}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="6600" windowWidth="21600" windowHeight="11385" xr2:uid="{980FB30F-44F3-473B-98D0-6A621BC8C19B}"/>
+    <workbookView xWindow="0" yWindow="2325" windowWidth="28800" windowHeight="14370" activeTab="2" xr2:uid="{980FB30F-44F3-473B-98D0-6A621BC8C19B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2329,7 +2329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800815E2-C717-4805-A523-8F9EF61FD11D}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4106,7 +4108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88319C3D-2763-4ACB-9186-34E7CB73F99C}">
   <dimension ref="A1:XFC125"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Module 28 - Consolidated Financial Statements Fair Values and Goodwill.xlsx
+++ b/Module 28 - Consolidated Financial Statements Fair Values and Goodwill.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1607" documentId="8_{A15A6917-A4B0-4037-BE4A-5411CBB6B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B88C00-3F47-48F9-9DEB-770C4BB2DFB4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2325" windowWidth="28800" windowHeight="14370" activeTab="2" xr2:uid="{980FB30F-44F3-473B-98D0-6A621BC8C19B}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="6675" windowHeight="6945" activeTab="1" xr2:uid="{980FB30F-44F3-473B-98D0-6A621BC8C19B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2330,7 +2330,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93555C46-725C-4B5C-BF74-95CEB3916F5A}">
   <dimension ref="A1:H525"/>
   <sheetViews>
-    <sheetView topLeftCell="A521" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G39" sqref="G38:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4108,8 +4108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88319C3D-2763-4ACB-9186-34E7CB73F99C}">
   <dimension ref="A1:XFC125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView topLeftCell="A115" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -21400,8 +21400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806FAD70-591F-4BC3-9FA0-174A721A52F6}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -21977,8 +21977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADA50D-139E-4A28-AEBE-332F711327D4}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -22600,8 +22600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C8E658-BB4F-4B0D-AD3F-89EC2F85E9F7}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
